--- a/Copie de Ecriture des scénarios projet.xlsx
+++ b/Copie de Ecriture des scénarios projet.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_9E67C393_7018_40D6_8807_4943032FCB60_.wvu.FilterData">'Feuille 1'!$A$5:$H$10</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C22C9B6F_92DE_44E0_A3BC_1D825125E637_.wvu.FilterData">'Feuille 1'!$A$5:$H$10</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E67C393-7018-40D6-8807-4943032FCB60}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C22C9B6F-92DE-44E0-A3BC-1D825125E637}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -278,7 +278,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200025" cy="200025"/>
+    <xdr:ext cx="2266950" cy="2266950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png"/>
@@ -331,6 +331,34 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1609725" cy="1571625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -341,7 +369,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -626,7 +654,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" ht="178.5" customHeight="1">
       <c r="A7" s="8">
         <v>2.0</v>
       </c>
@@ -666,7 +694,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" ht="123.75" customHeight="1">
       <c r="A9" s="8">
         <v>4.0</v>
       </c>
@@ -708,7 +736,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9E67C393-7018-40D6-8807-4943032FCB60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C22C9B6F-92DE-44E0-A3BC-1D825125E637}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$5:$H$10"/>
     </customSheetView>
   </customSheetViews>
